--- a/datacode.xlsx
+++ b/datacode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dataPJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB7D1CE-E69E-4A1F-8A06-2BB259D6FC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB884E6-6CEB-4CC5-BC8A-3147AACE58A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3978F87A-FFB2-4B52-BD34-7F81DE684AF0}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>GDPC1</t>
     <phoneticPr fontId="1"/>
@@ -54,13 +54,6 @@
   </si>
   <si>
     <t>realnominal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>和名</t>
-    <rPh sb="0" eb="2">
-      <t>ワメイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -79,10 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>epi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SP500</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -95,10 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cpi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DCOILWTICO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -112,6 +97,180 @@
   </si>
   <si>
     <t>wilshire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A794RX0Q048SBEA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPDIC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LES1252881600Q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DPCERD3Q086SBEA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOGZ1FL072052006Q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>epi_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpi_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CIVPART</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sentiment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UMCSENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nasdaq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NASDAQ100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NIKKEI225</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nikkei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_jpn_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTGSBJPM193N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M2SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>money_s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAYEMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>labor_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>house_jpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPNWSCNDW01MLSAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MYAGM2JPM189N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>money_s_jpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPASTT01JPM661N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tosho_jpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hpi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSUSHPISA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spread_ten</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T10YFFM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GFDEGDQ188S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b_obs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A822RE1Q156NBEA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対GDP比</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g_obs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53D7A27-4491-499D-8FCD-C0DECCECCD4C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
@@ -505,13 +664,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -528,6 +687,68 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -539,13 +760,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9176CC49-6922-4481-A127-9D03EBF3BE2C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.58203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -564,29 +787,109 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -598,15 +901,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254EB46-0948-49E4-A6EC-2E5FB2B889A0}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.58203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -625,37 +928,55 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
